--- a/biology/Zoologie/Cordulegaster_boltonii/Cordulegaster_boltonii.xlsx
+++ b/biology/Zoologie/Cordulegaster_boltonii/Cordulegaster_boltonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cordulegaster boltonii, le cordulégastre annelé, est une espèce d'insectes odonates anisoptères appartenant à la famille des Cordulegastridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est la seule espèce du genre Cordulegaster à occuper une grande partie de l'Europe : Europe occidentale, une grande partie de l'Europe du Nord, l'Europe centrale, probablement jusqu'à l'Oural à l'est.
 </t>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cordulégastre annelé occupe les torrents, ruisseaux ou petites rivières à eau claire, souvent en forêt, surtout dans les régions de collines ou de montagnes, l'adulte de mai à novembre selon les régions[pas clair] . Il peut se poser à terre ou en suspension dans les végétaux.La larve guette ses proies à demi-enfoncée dans la vase. 
 La femelle pond ses œufs dans l’eau, les étangs, les fleuves etc, en faisant des petits saut pour y enfoncer ses œufs sous la terre cailloux sable[pas clair].
